--- a/lang/uk/headTags.xlsx
+++ b/lang/uk/headTags.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1170">
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>uk</t>
+    <t>uk (Ukrainian)</t>
   </si>
   <si>
     <t>101 Dalmatians</t>
@@ -511,6 +511,9 @@
     <t>Charlie and the Chocolate Factory</t>
   </si>
   <si>
+    <t>Chase the Skies</t>
+  </si>
+  <si>
     <t>Cheese</t>
   </si>
   <si>
@@ -982,6 +985,9 @@
     <t>Fairy Tales</t>
   </si>
   <si>
+    <t>Fall Drop</t>
+  </si>
+  <si>
     <t>Fall Guys</t>
   </si>
   <si>
@@ -1747,6 +1753,9 @@
     <t>Hypixel</t>
   </si>
   <si>
+    <t>Hypixel (Attribute Shard)</t>
+  </si>
+  <si>
     <t>Hypixel (Dyes)</t>
   </si>
   <si>
@@ -2638,6 +2647,9 @@
     <t>Quake</t>
   </si>
   <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
     <t>Rabbit</t>
   </si>
   <si>
@@ -2959,6 +2971,9 @@
     <t>Spooky's Jump Scare Mansion</t>
   </si>
   <si>
+    <t>Spore</t>
+  </si>
+  <si>
     <t>Sport</t>
   </si>
   <si>
@@ -3047,9 +3062,6 @@
   </si>
   <si>
     <t>Summer</t>
-  </si>
-  <si>
-    <t>Summer Drop 2025</t>
   </si>
   <si>
     <t>Sunglasses</t>
@@ -3861,7 +3873,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1165"/>
+  <dimension ref="A1:B1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9702,8 +9714,28 @@
         <v>1165</v>
       </c>
     </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" t="s">
+        <v>1169</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1165"/>
+  <autoFilter ref="A1:B1169"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/uk/headTags.xlsx
+++ b/lang/uk/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2198">
   <si>
     <t>en</t>
   </si>
@@ -1808,6 +1808,12 @@
   </si>
   <si>
     <t>Вибухова речовина.</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Око.</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -6951,7 +6957,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1169"/>
+  <dimension ref="A1:B1170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9537,12 +9543,12 @@
         <v>611</v>
       </c>
       <c r="B322" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B323" t="s">
         <v>613</v>
@@ -9569,12 +9575,12 @@
         <v>618</v>
       </c>
       <c r="B326" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B327" t="s">
         <v>620</v>
@@ -9673,12 +9679,12 @@
         <v>643</v>
       </c>
       <c r="B339" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B340" t="s">
         <v>645</v>
@@ -9833,12 +9839,12 @@
         <v>682</v>
       </c>
       <c r="B359" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B360" t="s">
         <v>684</v>
@@ -9865,12 +9871,12 @@
         <v>689</v>
       </c>
       <c r="B363" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B364" t="s">
         <v>691</v>
@@ -9897,12 +9903,12 @@
         <v>696</v>
       </c>
       <c r="B367" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B368" t="s">
         <v>698</v>
@@ -10401,12 +10407,12 @@
         <v>821</v>
       </c>
       <c r="B430" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B431" t="s">
         <v>823</v>
@@ -10505,12 +10511,12 @@
         <v>846</v>
       </c>
       <c r="B443" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B444" t="s">
         <v>848</v>
@@ -10609,12 +10615,12 @@
         <v>871</v>
       </c>
       <c r="B456" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B457" t="s">
         <v>873</v>
@@ -10665,28 +10671,28 @@
         <v>884</v>
       </c>
       <c r="B463" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B464" t="s">
-        <v>600</v>
+        <v>886</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B465" t="s">
-        <v>886</v>
+        <v>602</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B466" t="s">
         <v>888</v>
@@ -10729,15 +10735,15 @@
         <v>897</v>
       </c>
       <c r="B471" t="s">
-        <v>600</v>
+        <v>898</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B472" t="s">
-        <v>899</v>
+        <v>602</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -10745,12 +10751,12 @@
         <v>900</v>
       </c>
       <c r="B473" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B474" t="s">
         <v>902</v>
@@ -10761,12 +10767,12 @@
         <v>903</v>
       </c>
       <c r="B475" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B476" t="s">
         <v>905</v>
@@ -10801,12 +10807,12 @@
         <v>912</v>
       </c>
       <c r="B480" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B481" t="s">
         <v>914</v>
@@ -10825,12 +10831,12 @@
         <v>917</v>
       </c>
       <c r="B483" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B484" t="s">
         <v>919</v>
@@ -10969,15 +10975,15 @@
         <v>952</v>
       </c>
       <c r="B501" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B502" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -11025,12 +11031,12 @@
         <v>965</v>
       </c>
       <c r="B508" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B509" t="s">
         <v>967</v>
@@ -11049,12 +11055,12 @@
         <v>970</v>
       </c>
       <c r="B511" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B512" t="s">
         <v>972</v>
@@ -11201,12 +11207,12 @@
         <v>1007</v>
       </c>
       <c r="B530" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B531" t="s">
         <v>1009</v>
@@ -11305,12 +11311,12 @@
         <v>1032</v>
       </c>
       <c r="B543" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B544" t="s">
         <v>1034</v>
@@ -11353,28 +11359,28 @@
         <v>1043</v>
       </c>
       <c r="B549" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B550" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B551" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B552" t="s">
         <v>1047</v>
@@ -11385,12 +11391,12 @@
         <v>1048</v>
       </c>
       <c r="B553" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B554" t="s">
         <v>1050</v>
@@ -11449,12 +11455,12 @@
         <v>1063</v>
       </c>
       <c r="B561" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B562" t="s">
         <v>1065</v>
@@ -11465,12 +11471,12 @@
         <v>1066</v>
       </c>
       <c r="B563" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B564" t="s">
         <v>1068</v>
@@ -11625,12 +11631,12 @@
         <v>1105</v>
       </c>
       <c r="B583" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B584" t="s">
         <v>1107</v>
@@ -11641,12 +11647,12 @@
         <v>1108</v>
       </c>
       <c r="B585" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B586" t="s">
         <v>1110</v>
@@ -11689,12 +11695,12 @@
         <v>1119</v>
       </c>
       <c r="B591" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B592" t="s">
         <v>1121</v>
@@ -11969,12 +11975,12 @@
         <v>1188</v>
       </c>
       <c r="B626" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B627" t="s">
         <v>1190</v>
@@ -12017,20 +12023,20 @@
         <v>1199</v>
       </c>
       <c r="B632" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B633" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B634" t="s">
         <v>1202</v>
@@ -12073,20 +12079,20 @@
         <v>1211</v>
       </c>
       <c r="B639" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B640" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B641" t="s">
         <v>1214</v>
@@ -12137,28 +12143,28 @@
         <v>1225</v>
       </c>
       <c r="B647" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B648" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B649" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B650" t="s">
         <v>1229</v>
@@ -12201,12 +12207,12 @@
         <v>1238</v>
       </c>
       <c r="B655" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B656" t="s">
         <v>1240</v>
@@ -12353,12 +12359,12 @@
         <v>1275</v>
       </c>
       <c r="B674" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B675" t="s">
         <v>1277</v>
@@ -12369,12 +12375,12 @@
         <v>1278</v>
       </c>
       <c r="B676" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B677" t="s">
         <v>1280</v>
@@ -12401,12 +12407,12 @@
         <v>1285</v>
       </c>
       <c r="B680" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B681" t="s">
         <v>1287</v>
@@ -12473,12 +12479,12 @@
         <v>1302</v>
       </c>
       <c r="B689" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B690" t="s">
         <v>1304</v>
@@ -12545,36 +12551,36 @@
         <v>1319</v>
       </c>
       <c r="B698" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B699" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B700" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B701" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B702" t="s">
         <v>1324</v>
@@ -12617,12 +12623,12 @@
         <v>1333</v>
       </c>
       <c r="B707" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B708" t="s">
         <v>1335</v>
@@ -12673,12 +12679,12 @@
         <v>1346</v>
       </c>
       <c r="B714" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B715" t="s">
         <v>1348</v>
@@ -12697,12 +12703,12 @@
         <v>1351</v>
       </c>
       <c r="B717" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B718" t="s">
         <v>1353</v>
@@ -12713,12 +12719,12 @@
         <v>1354</v>
       </c>
       <c r="B719" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B720" t="s">
         <v>1356</v>
@@ -12729,12 +12735,12 @@
         <v>1357</v>
       </c>
       <c r="B721" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B722" t="s">
         <v>1359</v>
@@ -12769,12 +12775,12 @@
         <v>1366</v>
       </c>
       <c r="B726" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B727" t="s">
         <v>1368</v>
@@ -12881,12 +12887,12 @@
         <v>1393</v>
       </c>
       <c r="B740" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B741" t="s">
         <v>1395</v>
@@ -12913,12 +12919,12 @@
         <v>1400</v>
       </c>
       <c r="B744" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B745" t="s">
         <v>1402</v>
@@ -13033,20 +13039,20 @@
         <v>1429</v>
       </c>
       <c r="B759" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B760" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B761" t="s">
         <v>1432</v>
@@ -13129,12 +13135,12 @@
         <v>1451</v>
       </c>
       <c r="B771" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B772" t="s">
         <v>1453</v>
@@ -13257,12 +13263,12 @@
         <v>1482</v>
       </c>
       <c r="B787" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B788" t="s">
         <v>1484</v>
@@ -13281,20 +13287,20 @@
         <v>1487</v>
       </c>
       <c r="B790" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B791" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B792" t="s">
         <v>1490</v>
@@ -13393,12 +13399,12 @@
         <v>1513</v>
       </c>
       <c r="B804" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B805" t="s">
         <v>1515</v>
@@ -13465,12 +13471,12 @@
         <v>1530</v>
       </c>
       <c r="B813" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B814" t="s">
         <v>1532</v>
@@ -13601,12 +13607,12 @@
         <v>1563</v>
       </c>
       <c r="B830" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B831" t="s">
         <v>1565</v>
@@ -13673,12 +13679,12 @@
         <v>1580</v>
       </c>
       <c r="B839" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B840" t="s">
         <v>1582</v>
@@ -13841,12 +13847,12 @@
         <v>1621</v>
       </c>
       <c r="B860" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B861" t="s">
         <v>1623</v>
@@ -13881,12 +13887,12 @@
         <v>1630</v>
       </c>
       <c r="B865" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B866" t="s">
         <v>1632</v>
@@ -13969,12 +13975,12 @@
         <v>1651</v>
       </c>
       <c r="B876" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B877" t="s">
         <v>1653</v>
@@ -14009,12 +14015,12 @@
         <v>1660</v>
       </c>
       <c r="B881" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B882" t="s">
         <v>1662</v>
@@ -14025,12 +14031,12 @@
         <v>1663</v>
       </c>
       <c r="B883" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B884" t="s">
         <v>1665</v>
@@ -14041,12 +14047,12 @@
         <v>1666</v>
       </c>
       <c r="B885" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B886" t="s">
         <v>1668</v>
@@ -14073,12 +14079,12 @@
         <v>1673</v>
       </c>
       <c r="B889" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B890" t="s">
         <v>1675</v>
@@ -14185,12 +14191,12 @@
         <v>1700</v>
       </c>
       <c r="B903" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B904" t="s">
         <v>1702</v>
@@ -14233,12 +14239,12 @@
         <v>1711</v>
       </c>
       <c r="B909" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B910" t="s">
         <v>1713</v>
@@ -14257,20 +14263,20 @@
         <v>1716</v>
       </c>
       <c r="B912" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B913" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B914" t="s">
         <v>1719</v>
@@ -14321,12 +14327,12 @@
         <v>1730</v>
       </c>
       <c r="B920" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B921" t="s">
         <v>1732</v>
@@ -14465,12 +14471,12 @@
         <v>1765</v>
       </c>
       <c r="B938" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B939" t="s">
         <v>1767</v>
@@ -14529,12 +14535,12 @@
         <v>1780</v>
       </c>
       <c r="B946" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="B947" t="s">
         <v>1782</v>
@@ -14649,12 +14655,12 @@
         <v>1809</v>
       </c>
       <c r="B961" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B962" t="s">
         <v>1811</v>
@@ -14729,12 +14735,12 @@
         <v>1828</v>
       </c>
       <c r="B971" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B972" t="s">
         <v>1830</v>
@@ -14761,12 +14767,12 @@
         <v>1835</v>
       </c>
       <c r="B975" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B976" t="s">
         <v>1836</v>
@@ -14774,7 +14780,7 @@
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B977" t="s">
         <v>1838</v>
@@ -14801,12 +14807,12 @@
         <v>1843</v>
       </c>
       <c r="B980" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B981" t="s">
         <v>1845</v>
@@ -14897,12 +14903,12 @@
         <v>1866</v>
       </c>
       <c r="B992" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B993" t="s">
         <v>1868</v>
@@ -14961,12 +14967,12 @@
         <v>1881</v>
       </c>
       <c r="B1000" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B1001" t="s">
         <v>1883</v>
@@ -15041,12 +15047,12 @@
         <v>1900</v>
       </c>
       <c r="B1010" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="B1011" t="s">
         <v>1902</v>
@@ -15065,12 +15071,12 @@
         <v>1905</v>
       </c>
       <c r="B1013" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B1014" t="s">
         <v>1907</v>
@@ -15137,20 +15143,20 @@
         <v>1922</v>
       </c>
       <c r="B1022" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="B1023" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B1024" t="s">
         <v>1925</v>
@@ -15169,12 +15175,12 @@
         <v>1928</v>
       </c>
       <c r="B1026" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B1027" t="s">
         <v>1930</v>
@@ -15185,12 +15191,12 @@
         <v>1931</v>
       </c>
       <c r="B1028" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B1029" t="s">
         <v>1933</v>
@@ -15225,12 +15231,12 @@
         <v>1940</v>
       </c>
       <c r="B1033" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B1034" t="s">
         <v>1942</v>
@@ -15281,12 +15287,12 @@
         <v>1953</v>
       </c>
       <c r="B1040" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B1041" t="s">
         <v>1955</v>
@@ -15305,12 +15311,12 @@
         <v>1958</v>
       </c>
       <c r="B1043" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B1044" t="s">
         <v>1960</v>
@@ -15329,12 +15335,12 @@
         <v>1963</v>
       </c>
       <c r="B1046" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B1047" t="s">
         <v>1965</v>
@@ -15449,12 +15455,12 @@
         <v>1992</v>
       </c>
       <c r="B1061" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B1062" t="s">
         <v>1994</v>
@@ -15481,12 +15487,12 @@
         <v>1999</v>
       </c>
       <c r="B1065" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B1066" t="s">
         <v>2001</v>
@@ -15521,20 +15527,20 @@
         <v>2008</v>
       </c>
       <c r="B1070" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B1071" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B1072" t="s">
         <v>2011</v>
@@ -15745,28 +15751,28 @@
         <v>2062</v>
       </c>
       <c r="B1098" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="B1099" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="B1100" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="B1101" t="s">
         <v>2066</v>
@@ -16025,12 +16031,12 @@
         <v>2129</v>
       </c>
       <c r="B1133" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="B1134" t="s">
         <v>2131</v>
@@ -16041,12 +16047,12 @@
         <v>2132</v>
       </c>
       <c r="B1135" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="B1136" t="s">
         <v>2134</v>
@@ -16097,12 +16103,12 @@
         <v>2145</v>
       </c>
       <c r="B1142" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="B1143" t="s">
         <v>2147</v>
@@ -16169,12 +16175,12 @@
         <v>2162</v>
       </c>
       <c r="B1151" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="B1152" t="s">
         <v>2164</v>
@@ -16209,12 +16215,12 @@
         <v>2171</v>
       </c>
       <c r="B1156" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="B1157" t="s">
         <v>2173</v>
@@ -16249,12 +16255,12 @@
         <v>2180</v>
       </c>
       <c r="B1161" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="B1162" t="s">
         <v>2182</v>
@@ -16273,12 +16279,12 @@
         <v>2185</v>
       </c>
       <c r="B1164" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="B1165" t="s">
         <v>2187</v>
@@ -16316,8 +16322,16 @@
         <v>2195</v>
       </c>
     </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>2197</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1169"/>
+  <autoFilter ref="A1:B1170"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/uk/headTags.xlsx
+++ b/lang/uk/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1171</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2200">
   <si>
     <t>en</t>
   </si>
@@ -5300,6 +5300,12 @@
   </si>
   <si>
     <t>Сім смертних гріхів</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Тінь Колоса</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -6957,7 +6963,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1170"/>
+  <dimension ref="A1:B1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -14479,12 +14485,12 @@
         <v>1767</v>
       </c>
       <c r="B939" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="B940" t="s">
         <v>1769</v>
@@ -14543,12 +14549,12 @@
         <v>1782</v>
       </c>
       <c r="B947" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="B948" t="s">
         <v>1784</v>
@@ -14663,12 +14669,12 @@
         <v>1811</v>
       </c>
       <c r="B962" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B963" t="s">
         <v>1813</v>
@@ -14743,12 +14749,12 @@
         <v>1830</v>
       </c>
       <c r="B972" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B973" t="s">
         <v>1832</v>
@@ -14775,12 +14781,12 @@
         <v>1837</v>
       </c>
       <c r="B976" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B977" t="s">
         <v>1838</v>
@@ -14788,7 +14794,7 @@
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B978" t="s">
         <v>1840</v>
@@ -14815,12 +14821,12 @@
         <v>1845</v>
       </c>
       <c r="B981" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B982" t="s">
         <v>1847</v>
@@ -14911,12 +14917,12 @@
         <v>1868</v>
       </c>
       <c r="B993" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B994" t="s">
         <v>1870</v>
@@ -14975,12 +14981,12 @@
         <v>1883</v>
       </c>
       <c r="B1001" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B1002" t="s">
         <v>1885</v>
@@ -15055,12 +15061,12 @@
         <v>1902</v>
       </c>
       <c r="B1011" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B1012" t="s">
         <v>1904</v>
@@ -15079,12 +15085,12 @@
         <v>1907</v>
       </c>
       <c r="B1014" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B1015" t="s">
         <v>1909</v>
@@ -15151,20 +15157,20 @@
         <v>1924</v>
       </c>
       <c r="B1023" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="B1024" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B1025" t="s">
         <v>1927</v>
@@ -15183,12 +15189,12 @@
         <v>1930</v>
       </c>
       <c r="B1027" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B1028" t="s">
         <v>1932</v>
@@ -15199,12 +15205,12 @@
         <v>1933</v>
       </c>
       <c r="B1029" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B1030" t="s">
         <v>1935</v>
@@ -15239,12 +15245,12 @@
         <v>1942</v>
       </c>
       <c r="B1034" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B1035" t="s">
         <v>1944</v>
@@ -15295,12 +15301,12 @@
         <v>1955</v>
       </c>
       <c r="B1041" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B1042" t="s">
         <v>1957</v>
@@ -15319,12 +15325,12 @@
         <v>1960</v>
       </c>
       <c r="B1044" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="B1045" t="s">
         <v>1962</v>
@@ -15343,12 +15349,12 @@
         <v>1965</v>
       </c>
       <c r="B1047" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B1048" t="s">
         <v>1967</v>
@@ -15463,12 +15469,12 @@
         <v>1994</v>
       </c>
       <c r="B1062" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B1063" t="s">
         <v>1996</v>
@@ -15495,12 +15501,12 @@
         <v>2001</v>
       </c>
       <c r="B1066" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B1067" t="s">
         <v>2003</v>
@@ -15535,20 +15541,20 @@
         <v>2010</v>
       </c>
       <c r="B1071" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B1072" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B1073" t="s">
         <v>2013</v>
@@ -15759,28 +15765,28 @@
         <v>2064</v>
       </c>
       <c r="B1099" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="B1100" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="B1101" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="B1102" t="s">
         <v>2068</v>
@@ -16039,12 +16045,12 @@
         <v>2131</v>
       </c>
       <c r="B1134" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="B1135" t="s">
         <v>2133</v>
@@ -16055,12 +16061,12 @@
         <v>2134</v>
       </c>
       <c r="B1136" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="B1137" t="s">
         <v>2136</v>
@@ -16111,12 +16117,12 @@
         <v>2147</v>
       </c>
       <c r="B1143" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="B1144" t="s">
         <v>2149</v>
@@ -16183,12 +16189,12 @@
         <v>2164</v>
       </c>
       <c r="B1152" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="B1153" t="s">
         <v>2166</v>
@@ -16223,12 +16229,12 @@
         <v>2173</v>
       </c>
       <c r="B1157" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="B1158" t="s">
         <v>2175</v>
@@ -16263,12 +16269,12 @@
         <v>2182</v>
       </c>
       <c r="B1162" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="B1163" t="s">
         <v>2184</v>
@@ -16287,12 +16293,12 @@
         <v>2187</v>
       </c>
       <c r="B1165" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="B1166" t="s">
         <v>2189</v>
@@ -16330,8 +16336,16 @@
         <v>2197</v>
       </c>
     </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>2199</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1170"/>
+  <autoFilter ref="A1:B1171"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/uk/headTags.xlsx
+++ b/lang/uk/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2204">
   <si>
     <t>en</t>
   </si>
@@ -4202,6 +4202,12 @@
   </si>
   <si>
     <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Гори хаосу</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -6969,7 +6975,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1172"/>
+  <dimension ref="A1:B1173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -12931,12 +12937,12 @@
         <v>1401</v>
       </c>
       <c r="B744" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B745" t="s">
         <v>1403</v>
@@ -13051,20 +13057,20 @@
         <v>1430</v>
       </c>
       <c r="B759" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B760" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B761" t="s">
         <v>1433</v>
@@ -13147,12 +13153,12 @@
         <v>1452</v>
       </c>
       <c r="B771" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B772" t="s">
         <v>1454</v>
@@ -13275,12 +13281,12 @@
         <v>1483</v>
       </c>
       <c r="B787" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B788" t="s">
         <v>1485</v>
@@ -13299,20 +13305,20 @@
         <v>1488</v>
       </c>
       <c r="B790" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B791" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B792" t="s">
         <v>1491</v>
@@ -13411,12 +13417,12 @@
         <v>1514</v>
       </c>
       <c r="B804" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B805" t="s">
         <v>1516</v>
@@ -13483,12 +13489,12 @@
         <v>1531</v>
       </c>
       <c r="B813" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B814" t="s">
         <v>1533</v>
@@ -13619,12 +13625,12 @@
         <v>1564</v>
       </c>
       <c r="B830" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B831" t="s">
         <v>1566</v>
@@ -13691,12 +13697,12 @@
         <v>1581</v>
       </c>
       <c r="B839" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B840" t="s">
         <v>1583</v>
@@ -13859,12 +13865,12 @@
         <v>1622</v>
       </c>
       <c r="B860" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B861" t="s">
         <v>1624</v>
@@ -13899,12 +13905,12 @@
         <v>1631</v>
       </c>
       <c r="B865" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B866" t="s">
         <v>1633</v>
@@ -13987,12 +13993,12 @@
         <v>1652</v>
       </c>
       <c r="B876" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B877" t="s">
         <v>1654</v>
@@ -14027,12 +14033,12 @@
         <v>1661</v>
       </c>
       <c r="B881" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B882" t="s">
         <v>1663</v>
@@ -14043,12 +14049,12 @@
         <v>1664</v>
       </c>
       <c r="B883" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B884" t="s">
         <v>1666</v>
@@ -14059,12 +14065,12 @@
         <v>1667</v>
       </c>
       <c r="B885" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B886" t="s">
         <v>1669</v>
@@ -14091,12 +14097,12 @@
         <v>1674</v>
       </c>
       <c r="B889" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B890" t="s">
         <v>1676</v>
@@ -14203,12 +14209,12 @@
         <v>1701</v>
       </c>
       <c r="B903" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B904" t="s">
         <v>1703</v>
@@ -14251,12 +14257,12 @@
         <v>1712</v>
       </c>
       <c r="B909" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B910" t="s">
         <v>1714</v>
@@ -14275,20 +14281,20 @@
         <v>1717</v>
       </c>
       <c r="B912" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B913" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B914" t="s">
         <v>1720</v>
@@ -14339,12 +14345,12 @@
         <v>1731</v>
       </c>
       <c r="B920" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B921" t="s">
         <v>1733</v>
@@ -14491,12 +14497,12 @@
         <v>1768</v>
       </c>
       <c r="B939" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="B940" t="s">
         <v>1770</v>
@@ -14555,12 +14561,12 @@
         <v>1783</v>
       </c>
       <c r="B947" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B948" t="s">
         <v>1785</v>
@@ -14675,12 +14681,12 @@
         <v>1812</v>
       </c>
       <c r="B962" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B963" t="s">
         <v>1814</v>
@@ -14755,12 +14761,12 @@
         <v>1831</v>
       </c>
       <c r="B972" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B973" t="s">
         <v>1833</v>
@@ -14787,12 +14793,12 @@
         <v>1838</v>
       </c>
       <c r="B976" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B977" t="s">
         <v>1839</v>
@@ -14800,7 +14806,7 @@
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B978" t="s">
         <v>1841</v>
@@ -14827,12 +14833,12 @@
         <v>1846</v>
       </c>
       <c r="B981" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B982" t="s">
         <v>1848</v>
@@ -14923,12 +14929,12 @@
         <v>1869</v>
       </c>
       <c r="B993" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="B994" t="s">
         <v>1871</v>
@@ -14987,12 +14993,12 @@
         <v>1884</v>
       </c>
       <c r="B1001" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B1002" t="s">
         <v>1886</v>
@@ -15067,12 +15073,12 @@
         <v>1903</v>
       </c>
       <c r="B1011" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B1012" t="s">
         <v>1905</v>
@@ -15091,12 +15097,12 @@
         <v>1908</v>
       </c>
       <c r="B1014" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="B1015" t="s">
         <v>1910</v>
@@ -15163,20 +15169,20 @@
         <v>1925</v>
       </c>
       <c r="B1023" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B1024" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="B1025" t="s">
         <v>1928</v>
@@ -15195,12 +15201,12 @@
         <v>1931</v>
       </c>
       <c r="B1027" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="B1028" t="s">
         <v>1933</v>
@@ -15211,12 +15217,12 @@
         <v>1934</v>
       </c>
       <c r="B1029" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="B1030" t="s">
         <v>1936</v>
@@ -15251,12 +15257,12 @@
         <v>1943</v>
       </c>
       <c r="B1034" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="B1035" t="s">
         <v>1945</v>
@@ -15307,12 +15313,12 @@
         <v>1956</v>
       </c>
       <c r="B1041" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="B1042" t="s">
         <v>1958</v>
@@ -15339,12 +15345,12 @@
         <v>1963</v>
       </c>
       <c r="B1045" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B1046" t="s">
         <v>1965</v>
@@ -15363,12 +15369,12 @@
         <v>1968</v>
       </c>
       <c r="B1048" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B1049" t="s">
         <v>1970</v>
@@ -15483,12 +15489,12 @@
         <v>1997</v>
       </c>
       <c r="B1063" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B1064" t="s">
         <v>1999</v>
@@ -15515,12 +15521,12 @@
         <v>2004</v>
       </c>
       <c r="B1067" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B1068" t="s">
         <v>2006</v>
@@ -15555,20 +15561,20 @@
         <v>2013</v>
       </c>
       <c r="B1072" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B1073" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B1074" t="s">
         <v>2016</v>
@@ -15779,28 +15785,28 @@
         <v>2067</v>
       </c>
       <c r="B1100" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="B1101" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="B1102" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="B1103" t="s">
         <v>2071</v>
@@ -16059,12 +16065,12 @@
         <v>2134</v>
       </c>
       <c r="B1135" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="B1136" t="s">
         <v>2136</v>
@@ -16075,12 +16081,12 @@
         <v>2137</v>
       </c>
       <c r="B1137" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="B1138" t="s">
         <v>2139</v>
@@ -16131,12 +16137,12 @@
         <v>2150</v>
       </c>
       <c r="B1144" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="B1145" t="s">
         <v>2152</v>
@@ -16203,12 +16209,12 @@
         <v>2167</v>
       </c>
       <c r="B1153" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="B1154" t="s">
         <v>2169</v>
@@ -16243,12 +16249,12 @@
         <v>2176</v>
       </c>
       <c r="B1158" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="B1159" t="s">
         <v>2178</v>
@@ -16283,12 +16289,12 @@
         <v>2185</v>
       </c>
       <c r="B1163" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="B1164" t="s">
         <v>2187</v>
@@ -16307,12 +16313,12 @@
         <v>2190</v>
       </c>
       <c r="B1166" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="B1167" t="s">
         <v>2192</v>
@@ -16355,11 +16361,19 @@
         <v>2201</v>
       </c>
       <c r="B1172" t="s">
-        <v>2201</v>
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>2203</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1172"/>
+  <autoFilter ref="A1:B1173"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/uk/headTags.xlsx
+++ b/lang/uk/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2206">
   <si>
     <t>en</t>
   </si>
@@ -2399,6 +2399,12 @@
   </si>
   <si>
     <t>Шрифт (Rainbow)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>Купель (червоний тесаний піщаник)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -6975,7 +6981,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1173"/>
+  <dimension ref="A1:B1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -10425,12 +10431,12 @@
         <v>822</v>
       </c>
       <c r="B430" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B431" t="s">
         <v>824</v>
@@ -10529,12 +10535,12 @@
         <v>847</v>
       </c>
       <c r="B443" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B444" t="s">
         <v>849</v>
@@ -10633,12 +10639,12 @@
         <v>872</v>
       </c>
       <c r="B456" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B457" t="s">
         <v>874</v>
@@ -10689,28 +10695,28 @@
         <v>885</v>
       </c>
       <c r="B463" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B464" t="s">
-        <v>602</v>
+        <v>887</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B465" t="s">
-        <v>887</v>
+        <v>602</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B466" t="s">
         <v>889</v>
@@ -10753,15 +10759,15 @@
         <v>898</v>
       </c>
       <c r="B471" t="s">
-        <v>602</v>
+        <v>899</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B472" t="s">
-        <v>900</v>
+        <v>602</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -10769,12 +10775,12 @@
         <v>901</v>
       </c>
       <c r="B473" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B474" t="s">
         <v>903</v>
@@ -10785,12 +10791,12 @@
         <v>904</v>
       </c>
       <c r="B475" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B476" t="s">
         <v>906</v>
@@ -10825,12 +10831,12 @@
         <v>913</v>
       </c>
       <c r="B480" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B481" t="s">
         <v>915</v>
@@ -10849,12 +10855,12 @@
         <v>918</v>
       </c>
       <c r="B483" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B484" t="s">
         <v>920</v>
@@ -10993,15 +10999,15 @@
         <v>953</v>
       </c>
       <c r="B501" t="s">
-        <v>938</v>
+        <v>954</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B502" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -11049,12 +11055,12 @@
         <v>966</v>
       </c>
       <c r="B508" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B509" t="s">
         <v>968</v>
@@ -11073,12 +11079,12 @@
         <v>971</v>
       </c>
       <c r="B511" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B512" t="s">
         <v>973</v>
@@ -11225,12 +11231,12 @@
         <v>1008</v>
       </c>
       <c r="B530" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B531" t="s">
         <v>1010</v>
@@ -11329,12 +11335,12 @@
         <v>1033</v>
       </c>
       <c r="B543" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B544" t="s">
         <v>1035</v>
@@ -11377,28 +11383,28 @@
         <v>1044</v>
       </c>
       <c r="B549" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B550" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B551" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B552" t="s">
         <v>1048</v>
@@ -11409,12 +11415,12 @@
         <v>1049</v>
       </c>
       <c r="B553" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B554" t="s">
         <v>1051</v>
@@ -11473,12 +11479,12 @@
         <v>1064</v>
       </c>
       <c r="B561" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B562" t="s">
         <v>1066</v>
@@ -11489,12 +11495,12 @@
         <v>1067</v>
       </c>
       <c r="B563" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B564" t="s">
         <v>1069</v>
@@ -11649,12 +11655,12 @@
         <v>1106</v>
       </c>
       <c r="B583" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B584" t="s">
         <v>1108</v>
@@ -11665,12 +11671,12 @@
         <v>1109</v>
       </c>
       <c r="B585" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B586" t="s">
         <v>1111</v>
@@ -11713,12 +11719,12 @@
         <v>1120</v>
       </c>
       <c r="B591" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B592" t="s">
         <v>1122</v>
@@ -11993,12 +11999,12 @@
         <v>1189</v>
       </c>
       <c r="B626" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B627" t="s">
         <v>1191</v>
@@ -12041,20 +12047,20 @@
         <v>1200</v>
       </c>
       <c r="B632" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B633" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B634" t="s">
         <v>1203</v>
@@ -12097,20 +12103,20 @@
         <v>1212</v>
       </c>
       <c r="B639" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B640" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B641" t="s">
         <v>1215</v>
@@ -12161,28 +12167,28 @@
         <v>1226</v>
       </c>
       <c r="B647" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B648" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B649" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B650" t="s">
         <v>1230</v>
@@ -12225,12 +12231,12 @@
         <v>1239</v>
       </c>
       <c r="B655" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B656" t="s">
         <v>1241</v>
@@ -12377,12 +12383,12 @@
         <v>1276</v>
       </c>
       <c r="B674" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B675" t="s">
         <v>1278</v>
@@ -12393,12 +12399,12 @@
         <v>1279</v>
       </c>
       <c r="B676" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B677" t="s">
         <v>1281</v>
@@ -12425,12 +12431,12 @@
         <v>1286</v>
       </c>
       <c r="B680" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B681" t="s">
         <v>1288</v>
@@ -12497,12 +12503,12 @@
         <v>1303</v>
       </c>
       <c r="B689" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B690" t="s">
         <v>1305</v>
@@ -12569,36 +12575,36 @@
         <v>1320</v>
       </c>
       <c r="B698" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B699" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B700" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B701" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B702" t="s">
         <v>1325</v>
@@ -12641,12 +12647,12 @@
         <v>1334</v>
       </c>
       <c r="B707" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B708" t="s">
         <v>1336</v>
@@ -12697,12 +12703,12 @@
         <v>1347</v>
       </c>
       <c r="B714" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B715" t="s">
         <v>1349</v>
@@ -12721,12 +12727,12 @@
         <v>1352</v>
       </c>
       <c r="B717" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B718" t="s">
         <v>1354</v>
@@ -12737,12 +12743,12 @@
         <v>1355</v>
       </c>
       <c r="B719" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B720" t="s">
         <v>1357</v>
@@ -12753,12 +12759,12 @@
         <v>1358</v>
       </c>
       <c r="B721" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B722" t="s">
         <v>1360</v>
@@ -12793,12 +12799,12 @@
         <v>1367</v>
       </c>
       <c r="B726" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B727" t="s">
         <v>1369</v>
@@ -12905,12 +12911,12 @@
         <v>1394</v>
       </c>
       <c r="B740" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B741" t="s">
         <v>1396</v>
@@ -12945,12 +12951,12 @@
         <v>1403</v>
       </c>
       <c r="B745" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B746" t="s">
         <v>1405</v>
@@ -13065,20 +13071,20 @@
         <v>1432</v>
       </c>
       <c r="B760" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B761" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B762" t="s">
         <v>1435</v>
@@ -13161,12 +13167,12 @@
         <v>1454</v>
       </c>
       <c r="B772" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B773" t="s">
         <v>1456</v>
@@ -13289,12 +13295,12 @@
         <v>1485</v>
       </c>
       <c r="B788" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B789" t="s">
         <v>1487</v>
@@ -13313,20 +13319,20 @@
         <v>1490</v>
       </c>
       <c r="B791" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B792" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B793" t="s">
         <v>1493</v>
@@ -13425,12 +13431,12 @@
         <v>1516</v>
       </c>
       <c r="B805" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B806" t="s">
         <v>1518</v>
@@ -13497,12 +13503,12 @@
         <v>1533</v>
       </c>
       <c r="B814" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B815" t="s">
         <v>1535</v>
@@ -13633,12 +13639,12 @@
         <v>1566</v>
       </c>
       <c r="B831" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B832" t="s">
         <v>1568</v>
@@ -13705,12 +13711,12 @@
         <v>1583</v>
       </c>
       <c r="B840" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B841" t="s">
         <v>1585</v>
@@ -13873,12 +13879,12 @@
         <v>1624</v>
       </c>
       <c r="B861" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B862" t="s">
         <v>1626</v>
@@ -13913,12 +13919,12 @@
         <v>1633</v>
       </c>
       <c r="B866" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B867" t="s">
         <v>1635</v>
@@ -14001,12 +14007,12 @@
         <v>1654</v>
       </c>
       <c r="B877" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B878" t="s">
         <v>1656</v>
@@ -14041,12 +14047,12 @@
         <v>1663</v>
       </c>
       <c r="B882" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B883" t="s">
         <v>1665</v>
@@ -14057,12 +14063,12 @@
         <v>1666</v>
       </c>
       <c r="B884" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B885" t="s">
         <v>1668</v>
@@ -14073,12 +14079,12 @@
         <v>1669</v>
       </c>
       <c r="B886" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B887" t="s">
         <v>1671</v>
@@ -14105,12 +14111,12 @@
         <v>1676</v>
       </c>
       <c r="B890" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B891" t="s">
         <v>1678</v>
@@ -14217,12 +14223,12 @@
         <v>1703</v>
       </c>
       <c r="B904" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B905" t="s">
         <v>1705</v>
@@ -14265,12 +14271,12 @@
         <v>1714</v>
       </c>
       <c r="B910" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B911" t="s">
         <v>1716</v>
@@ -14289,20 +14295,20 @@
         <v>1719</v>
       </c>
       <c r="B913" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B914" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B915" t="s">
         <v>1722</v>
@@ -14353,12 +14359,12 @@
         <v>1733</v>
       </c>
       <c r="B921" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B922" t="s">
         <v>1735</v>
@@ -14505,12 +14511,12 @@
         <v>1770</v>
       </c>
       <c r="B940" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="B941" t="s">
         <v>1772</v>
@@ -14569,12 +14575,12 @@
         <v>1785</v>
       </c>
       <c r="B948" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B949" t="s">
         <v>1787</v>
@@ -14689,12 +14695,12 @@
         <v>1814</v>
       </c>
       <c r="B963" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B964" t="s">
         <v>1816</v>
@@ -14769,12 +14775,12 @@
         <v>1833</v>
       </c>
       <c r="B973" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B974" t="s">
         <v>1835</v>
@@ -14801,12 +14807,12 @@
         <v>1840</v>
       </c>
       <c r="B977" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B978" t="s">
         <v>1841</v>
@@ -14814,7 +14820,7 @@
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B979" t="s">
         <v>1843</v>
@@ -14841,12 +14847,12 @@
         <v>1848</v>
       </c>
       <c r="B982" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B983" t="s">
         <v>1850</v>
@@ -14937,12 +14943,12 @@
         <v>1871</v>
       </c>
       <c r="B994" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="B995" t="s">
         <v>1873</v>
@@ -15001,12 +15007,12 @@
         <v>1886</v>
       </c>
       <c r="B1002" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B1003" t="s">
         <v>1888</v>
@@ -15081,12 +15087,12 @@
         <v>1905</v>
       </c>
       <c r="B1012" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B1013" t="s">
         <v>1907</v>
@@ -15105,12 +15111,12 @@
         <v>1910</v>
       </c>
       <c r="B1015" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B1016" t="s">
         <v>1912</v>
@@ -15177,20 +15183,20 @@
         <v>1927</v>
       </c>
       <c r="B1024" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="B1025" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="B1026" t="s">
         <v>1930</v>
@@ -15209,12 +15215,12 @@
         <v>1933</v>
       </c>
       <c r="B1028" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B1029" t="s">
         <v>1935</v>
@@ -15225,12 +15231,12 @@
         <v>1936</v>
       </c>
       <c r="B1030" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="B1031" t="s">
         <v>1938</v>
@@ -15265,12 +15271,12 @@
         <v>1945</v>
       </c>
       <c r="B1035" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="B1036" t="s">
         <v>1947</v>
@@ -15321,12 +15327,12 @@
         <v>1958</v>
       </c>
       <c r="B1042" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B1043" t="s">
         <v>1960</v>
@@ -15353,12 +15359,12 @@
         <v>1965</v>
       </c>
       <c r="B1046" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B1047" t="s">
         <v>1967</v>
@@ -15377,12 +15383,12 @@
         <v>1970</v>
       </c>
       <c r="B1049" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B1050" t="s">
         <v>1972</v>
@@ -15497,12 +15503,12 @@
         <v>1999</v>
       </c>
       <c r="B1064" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B1065" t="s">
         <v>2001</v>
@@ -15529,12 +15535,12 @@
         <v>2006</v>
       </c>
       <c r="B1068" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B1069" t="s">
         <v>2008</v>
@@ -15569,20 +15575,20 @@
         <v>2015</v>
       </c>
       <c r="B1073" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B1074" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B1075" t="s">
         <v>2018</v>
@@ -15793,28 +15799,28 @@
         <v>2069</v>
       </c>
       <c r="B1101" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="B1102" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B1103" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="B1104" t="s">
         <v>2073</v>
@@ -16073,12 +16079,12 @@
         <v>2136</v>
       </c>
       <c r="B1136" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="B1137" t="s">
         <v>2138</v>
@@ -16089,12 +16095,12 @@
         <v>2139</v>
       </c>
       <c r="B1138" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="B1139" t="s">
         <v>2141</v>
@@ -16145,12 +16151,12 @@
         <v>2152</v>
       </c>
       <c r="B1145" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="B1146" t="s">
         <v>2154</v>
@@ -16217,12 +16223,12 @@
         <v>2169</v>
       </c>
       <c r="B1154" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="B1155" t="s">
         <v>2171</v>
@@ -16257,12 +16263,12 @@
         <v>2178</v>
       </c>
       <c r="B1159" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="B1160" t="s">
         <v>2180</v>
@@ -16297,12 +16303,12 @@
         <v>2187</v>
       </c>
       <c r="B1164" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="B1165" t="s">
         <v>2189</v>
@@ -16321,12 +16327,12 @@
         <v>2192</v>
       </c>
       <c r="B1167" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="B1168" t="s">
         <v>2194</v>
@@ -16369,11 +16375,19 @@
         <v>2203</v>
       </c>
       <c r="B1173" t="s">
-        <v>2203</v>
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>2205</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1173"/>
+  <autoFilter ref="A1:B1174"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/uk/headTags.xlsx
+++ b/lang/uk/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2208">
   <si>
     <t>en</t>
   </si>
@@ -6218,6 +6218,12 @@
   </si>
   <si>
     <t>Сутінковий ліс</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Перекручена країна чудес</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -6981,7 +6987,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1174"/>
+  <dimension ref="A1:B1175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15807,28 +15813,28 @@
         <v>2071</v>
       </c>
       <c r="B1102" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="B1103" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="B1104" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B1105" t="s">
         <v>2075</v>
@@ -16087,12 +16093,12 @@
         <v>2138</v>
       </c>
       <c r="B1137" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="B1138" t="s">
         <v>2140</v>
@@ -16103,12 +16109,12 @@
         <v>2141</v>
       </c>
       <c r="B1139" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="B1140" t="s">
         <v>2143</v>
@@ -16159,12 +16165,12 @@
         <v>2154</v>
       </c>
       <c r="B1146" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="B1147" t="s">
         <v>2156</v>
@@ -16231,12 +16237,12 @@
         <v>2171</v>
       </c>
       <c r="B1155" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="B1156" t="s">
         <v>2173</v>
@@ -16271,12 +16277,12 @@
         <v>2180</v>
       </c>
       <c r="B1160" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="B1161" t="s">
         <v>2182</v>
@@ -16311,12 +16317,12 @@
         <v>2189</v>
       </c>
       <c r="B1165" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="B1166" t="s">
         <v>2191</v>
@@ -16335,12 +16341,12 @@
         <v>2194</v>
       </c>
       <c r="B1168" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="B1169" t="s">
         <v>2196</v>
@@ -16383,11 +16389,19 @@
         <v>2205</v>
       </c>
       <c r="B1174" t="s">
-        <v>2205</v>
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>2207</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1174"/>
+  <autoFilter ref="A1:B1175"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/uk/headTags.xlsx
+++ b/lang/uk/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2210">
   <si>
     <t>en</t>
   </si>
@@ -3341,6 +3341,12 @@
   </si>
   <si>
     <t>Hypixel (Міньйон)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>Тег гіпікселів (мутацій)</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -6987,7 +6993,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1175"/>
+  <dimension ref="A1:B1176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -11669,12 +11675,12 @@
         <v>1108</v>
       </c>
       <c r="B584" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B585" t="s">
         <v>1110</v>
@@ -11685,12 +11691,12 @@
         <v>1111</v>
       </c>
       <c r="B586" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B587" t="s">
         <v>1113</v>
@@ -11733,12 +11739,12 @@
         <v>1122</v>
       </c>
       <c r="B592" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B593" t="s">
         <v>1124</v>
@@ -12013,12 +12019,12 @@
         <v>1191</v>
       </c>
       <c r="B627" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B628" t="s">
         <v>1193</v>
@@ -12061,20 +12067,20 @@
         <v>1202</v>
       </c>
       <c r="B633" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B634" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B635" t="s">
         <v>1205</v>
@@ -12117,20 +12123,20 @@
         <v>1214</v>
       </c>
       <c r="B640" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B641" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B642" t="s">
         <v>1217</v>
@@ -12181,28 +12187,28 @@
         <v>1228</v>
       </c>
       <c r="B648" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B649" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B650" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B651" t="s">
         <v>1232</v>
@@ -12245,12 +12251,12 @@
         <v>1241</v>
       </c>
       <c r="B656" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B657" t="s">
         <v>1243</v>
@@ -12397,12 +12403,12 @@
         <v>1278</v>
       </c>
       <c r="B675" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B676" t="s">
         <v>1280</v>
@@ -12413,12 +12419,12 @@
         <v>1281</v>
       </c>
       <c r="B677" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B678" t="s">
         <v>1283</v>
@@ -12445,12 +12451,12 @@
         <v>1288</v>
       </c>
       <c r="B681" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B682" t="s">
         <v>1290</v>
@@ -12517,12 +12523,12 @@
         <v>1305</v>
       </c>
       <c r="B690" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B691" t="s">
         <v>1307</v>
@@ -12589,36 +12595,36 @@
         <v>1322</v>
       </c>
       <c r="B699" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B700" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B701" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B702" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B703" t="s">
         <v>1327</v>
@@ -12661,12 +12667,12 @@
         <v>1336</v>
       </c>
       <c r="B708" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B709" t="s">
         <v>1338</v>
@@ -12717,12 +12723,12 @@
         <v>1349</v>
       </c>
       <c r="B715" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B716" t="s">
         <v>1351</v>
@@ -12741,12 +12747,12 @@
         <v>1354</v>
       </c>
       <c r="B718" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B719" t="s">
         <v>1356</v>
@@ -12757,12 +12763,12 @@
         <v>1357</v>
       </c>
       <c r="B720" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B721" t="s">
         <v>1359</v>
@@ -12773,12 +12779,12 @@
         <v>1360</v>
       </c>
       <c r="B722" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B723" t="s">
         <v>1362</v>
@@ -12813,12 +12819,12 @@
         <v>1369</v>
       </c>
       <c r="B727" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B728" t="s">
         <v>1371</v>
@@ -12925,12 +12931,12 @@
         <v>1396</v>
       </c>
       <c r="B741" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B742" t="s">
         <v>1398</v>
@@ -12965,12 +12971,12 @@
         <v>1405</v>
       </c>
       <c r="B746" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B747" t="s">
         <v>1407</v>
@@ -13085,20 +13091,20 @@
         <v>1434</v>
       </c>
       <c r="B761" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B762" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B763" t="s">
         <v>1437</v>
@@ -13181,12 +13187,12 @@
         <v>1456</v>
       </c>
       <c r="B773" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B774" t="s">
         <v>1458</v>
@@ -13309,12 +13315,12 @@
         <v>1487</v>
       </c>
       <c r="B789" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B790" t="s">
         <v>1489</v>
@@ -13333,20 +13339,20 @@
         <v>1492</v>
       </c>
       <c r="B792" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B793" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B794" t="s">
         <v>1495</v>
@@ -13445,12 +13451,12 @@
         <v>1518</v>
       </c>
       <c r="B806" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B807" t="s">
         <v>1520</v>
@@ -13517,12 +13523,12 @@
         <v>1535</v>
       </c>
       <c r="B815" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B816" t="s">
         <v>1537</v>
@@ -13653,12 +13659,12 @@
         <v>1568</v>
       </c>
       <c r="B832" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B833" t="s">
         <v>1570</v>
@@ -13725,12 +13731,12 @@
         <v>1585</v>
       </c>
       <c r="B841" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B842" t="s">
         <v>1587</v>
@@ -13893,12 +13899,12 @@
         <v>1626</v>
       </c>
       <c r="B862" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B863" t="s">
         <v>1628</v>
@@ -13933,12 +13939,12 @@
         <v>1635</v>
       </c>
       <c r="B867" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B868" t="s">
         <v>1637</v>
@@ -14021,12 +14027,12 @@
         <v>1656</v>
       </c>
       <c r="B878" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B879" t="s">
         <v>1658</v>
@@ -14061,12 +14067,12 @@
         <v>1665</v>
       </c>
       <c r="B883" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B884" t="s">
         <v>1667</v>
@@ -14077,12 +14083,12 @@
         <v>1668</v>
       </c>
       <c r="B885" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B886" t="s">
         <v>1670</v>
@@ -14093,12 +14099,12 @@
         <v>1671</v>
       </c>
       <c r="B887" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B888" t="s">
         <v>1673</v>
@@ -14125,12 +14131,12 @@
         <v>1678</v>
       </c>
       <c r="B891" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B892" t="s">
         <v>1680</v>
@@ -14237,12 +14243,12 @@
         <v>1705</v>
       </c>
       <c r="B905" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B906" t="s">
         <v>1707</v>
@@ -14285,12 +14291,12 @@
         <v>1716</v>
       </c>
       <c r="B911" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B912" t="s">
         <v>1718</v>
@@ -14309,20 +14315,20 @@
         <v>1721</v>
       </c>
       <c r="B914" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B915" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B916" t="s">
         <v>1724</v>
@@ -14373,12 +14379,12 @@
         <v>1735</v>
       </c>
       <c r="B922" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B923" t="s">
         <v>1737</v>
@@ -14525,12 +14531,12 @@
         <v>1772</v>
       </c>
       <c r="B941" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="B942" t="s">
         <v>1774</v>
@@ -14589,12 +14595,12 @@
         <v>1787</v>
       </c>
       <c r="B949" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B950" t="s">
         <v>1789</v>
@@ -14709,12 +14715,12 @@
         <v>1816</v>
       </c>
       <c r="B964" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B965" t="s">
         <v>1818</v>
@@ -14789,12 +14795,12 @@
         <v>1835</v>
       </c>
       <c r="B974" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B975" t="s">
         <v>1837</v>
@@ -14821,12 +14827,12 @@
         <v>1842</v>
       </c>
       <c r="B978" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B979" t="s">
         <v>1843</v>
@@ -14834,7 +14840,7 @@
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B980" t="s">
         <v>1845</v>
@@ -14861,12 +14867,12 @@
         <v>1850</v>
       </c>
       <c r="B983" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B984" t="s">
         <v>1852</v>
@@ -14957,12 +14963,12 @@
         <v>1873</v>
       </c>
       <c r="B995" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B996" t="s">
         <v>1875</v>
@@ -15021,12 +15027,12 @@
         <v>1888</v>
       </c>
       <c r="B1003" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B1004" t="s">
         <v>1890</v>
@@ -15101,12 +15107,12 @@
         <v>1907</v>
       </c>
       <c r="B1013" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B1014" t="s">
         <v>1909</v>
@@ -15125,12 +15131,12 @@
         <v>1912</v>
       </c>
       <c r="B1016" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="B1017" t="s">
         <v>1914</v>
@@ -15197,20 +15203,20 @@
         <v>1929</v>
       </c>
       <c r="B1025" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B1026" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B1027" t="s">
         <v>1932</v>
@@ -15229,12 +15235,12 @@
         <v>1935</v>
       </c>
       <c r="B1029" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B1030" t="s">
         <v>1937</v>
@@ -15245,12 +15251,12 @@
         <v>1938</v>
       </c>
       <c r="B1031" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B1032" t="s">
         <v>1940</v>
@@ -15285,12 +15291,12 @@
         <v>1947</v>
       </c>
       <c r="B1036" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="B1037" t="s">
         <v>1949</v>
@@ -15341,12 +15347,12 @@
         <v>1960</v>
       </c>
       <c r="B1043" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="B1044" t="s">
         <v>1962</v>
@@ -15373,12 +15379,12 @@
         <v>1967</v>
       </c>
       <c r="B1047" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B1048" t="s">
         <v>1969</v>
@@ -15397,12 +15403,12 @@
         <v>1972</v>
       </c>
       <c r="B1050" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B1051" t="s">
         <v>1974</v>
@@ -15517,12 +15523,12 @@
         <v>2001</v>
       </c>
       <c r="B1065" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B1066" t="s">
         <v>2003</v>
@@ -15549,12 +15555,12 @@
         <v>2008</v>
       </c>
       <c r="B1069" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B1070" t="s">
         <v>2010</v>
@@ -15589,20 +15595,20 @@
         <v>2017</v>
       </c>
       <c r="B1074" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B1075" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B1076" t="s">
         <v>2020</v>
@@ -15821,28 +15827,28 @@
         <v>2073</v>
       </c>
       <c r="B1103" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B1104" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="B1105" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="B1106" t="s">
         <v>2077</v>
@@ -16101,12 +16107,12 @@
         <v>2140</v>
       </c>
       <c r="B1138" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="B1139" t="s">
         <v>2142</v>
@@ -16117,12 +16123,12 @@
         <v>2143</v>
       </c>
       <c r="B1140" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="B1141" t="s">
         <v>2145</v>
@@ -16173,12 +16179,12 @@
         <v>2156</v>
       </c>
       <c r="B1147" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="B1148" t="s">
         <v>2158</v>
@@ -16245,12 +16251,12 @@
         <v>2173</v>
       </c>
       <c r="B1156" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="B1157" t="s">
         <v>2175</v>
@@ -16285,12 +16291,12 @@
         <v>2182</v>
       </c>
       <c r="B1161" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="B1162" t="s">
         <v>2184</v>
@@ -16325,12 +16331,12 @@
         <v>2191</v>
       </c>
       <c r="B1166" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="B1167" t="s">
         <v>2193</v>
@@ -16349,12 +16355,12 @@
         <v>2196</v>
       </c>
       <c r="B1169" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="B1170" t="s">
         <v>2198</v>
@@ -16397,11 +16403,19 @@
         <v>2207</v>
       </c>
       <c r="B1175" t="s">
-        <v>2207</v>
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>2209</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1175"/>
+  <autoFilter ref="A1:B1176"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/uk/headTags.xlsx
+++ b/lang/uk/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1177</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2212">
   <si>
     <t>en</t>
   </si>
@@ -3343,3307 +3343,3313 @@
     <t>Hypixel (Міньйон)</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>Гіпіксель (мутації)</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>Hypixel (Домашні тварини)</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>Гіпіксель (мішки)</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>Hypixel (скіни)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>Hypixel (Талісмани)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>Гіпіксель (трофейна риба)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Країна блискучих)</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>Льодовиковий період</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>Льодолаз</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Морозиво</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>Іконки (графічний інтерфейс)</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>Іконки (Ironblock)</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>Іконки (Інше)</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>Іконки (білий фон)</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>Ідентичність V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>Іллагер</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>Іназума Одинадцять</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>Неймовірне</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Індіана Джонс</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>Парк Індіго</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Травми</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>Блок внутрішнього шару</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>Шифрування</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Комаха</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Виворіт навиворіт</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>Іну Яша</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>Загарбник Зім</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Непереможний</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>Залізна Людина</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Це</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>Як і Дакстер</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Японія</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Баночка.</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Ювелірні вироби</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>Дивна пригода ДжоДжо</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>Химерна пригода ДжоДжо (стенд)</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Подорож</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Дзюдзюцу Кайсен</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>Король Стрибун.</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Парк Юрського періоду</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Ліга Справедливості</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>Какегуруї</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>Карате-малюк.</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>Катамарі Дамасі</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>Малий Ікар.</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Служба доставки Кікі</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>Кім Потенціал</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>Кімецу но Яіба</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Серця Царства</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Кірбі.</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Кухня</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>Кунг-фу Панда</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>Куроко но Басуке</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>Абажур</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>Пейзаж</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Ліхтар.</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>Лапута: замок у небі</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>Легендарні покемони</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>Лего.</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>Смертельна ліга</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>Бібліотека Руїни</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>Життя - дивна штука</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>Компанія Limbus</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>Король Лев</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>Маленька Велика Планета</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>Русалонька</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>Маленькі кошмари</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>Маленька крамничка жахів</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>Маленька академія відьом</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Ламо!</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Логотип</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>Божевільні мелодії</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>Володар перснів</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>Живи з любов'ю!</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>Закохане створіння</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>Закохана людина</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>Щасливчик Люк.</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>Машинна частина</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>Божевільний батько</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>Божевільний Макс</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>Божевільний бій</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Макіяж</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Чоловік</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>Мао Мао Герої чистого серця</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Дивовижно.</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>Марія і квітка відьми</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>Талісман</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Маска</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>Маска (повна)</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>Маска (функціональна)</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>Маска (здоров'я)</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Маска (моб в Minecraft)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>Володарі Всесвіту</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>Математичний символ</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>"Мак Дональдс".</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Їжа</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>М'ясо</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Середньовічний</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>Середньовічна таверна</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Середньовічний бойовий шолом</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>Актори Mekakucity</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Мем</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>Мем (Дождь)</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>Мем (Пепе)</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Метал</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Метро</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>Метроїд.</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Мексика</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Міккі Маус</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>Військова техніка</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>Першоквітневі дурниці в Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>Підземелля Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>Minecraft Земля</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Легенди Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>Фільм про Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Шахтар.</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>Морський тральщик</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Дивовижно: Казки про сонечко та кота-нуар</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>Мірай Ніккі (Щоденник майбутнього)</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>Покоївка-дракон пані Кобаяші</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>Ресурсний пакет Mizuno</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Моана.</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Сучасний бойовий шолом</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Гроші</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>Грошова крадіжка</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Монітор</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>Мавпячий острів</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>Монокль.</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>Монстр Хай</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Мисливець на монстрів</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>"Монстр Інк</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>Мумі-троль.</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Гори хаосу</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>Полоскання рота</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>Містере Бін.</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Мулан</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>Маппетс</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>Безпілотники-вбивці</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Гриб</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>Гриб (Biome)</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>Гриб (головний убір)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Музика</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>Вуса.</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>Мій друг олень Нокотан</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>Мій герой Академія</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>Моя маленька поні</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>Мій сусід Тоторо</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>Мої співочі монстри</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Наруто!</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Наусікаа з Долини Вітру</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>Нічийний (натхненний)</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>Нігер (ваніль)</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>Нейтральна істота</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>Нейтральна особа</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>Новорічна ніч</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>NieR: Автомати</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>Ніч у лісі</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>Кошмар перед Різдвом</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>Черепашки-ніндзя</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>Немає гри - немає життя</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>Домашня вечірка Ноеля</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>Скандинавська міфологія</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>NPC (освітнє видання)</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>Ядерні опади</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>Ядерний трон</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Горіх</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Океан</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>Октодай.</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>Дивний світ</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>ВИМКНЕНО</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>Офіцерський кашкет.</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>Оггі та таргани</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>Окегом</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Старий</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>Оморі.</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>Один Шматок</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>Онгезелліг.</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>Оніі-тян ва Ошімай</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>Об'єкти з відкритим кодом</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Орб.</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Орк!</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Руда.</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>Органи та частини тіла</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>Інші головні убори</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>Інше освітлення</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>Інша містична істота</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>Блок зовнішнього шару</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>Повелитель.</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>Пакман.</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>Тихоокеанський регіон</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>Пустушка</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>Розмальоване обличчя</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>Блідий сад (натхненний)</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>Ведмедик Панда</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>Сковорідки Лабіринт</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>Документи, будь ласка.</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Вечірка</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>Випічка та солодощі</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>Щенячий патруль</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>День зарплати</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>Арахіс (Snoopy)</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Пінгвін</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>Свинка Пеппа</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>Періодична таблиця елементів</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Персона</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>Обладнання для домашніх тварин</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Пітер Пен</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Фантом</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>Фінес і Ферб</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Свиня</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>Піглін.</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>Свинопас.</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>Пінгу</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>Рожева Пантера</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>Мізинчик і мозок</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Піноккіо</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>Пірати Карибського моря</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>Піцерія "Вежа піци</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>Планета</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>Рослини проти зомбі</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>Покахонтас</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Покебол</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Покемони.</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>Покемони покоління 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>Покоління покемонів 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>Покемони 3 покоління</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>Покоління покемонів 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>Покоління покемонів 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>Покемони 6-го покоління</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>Покемони 7-го покоління</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>Покемони 8-го покоління</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>Покемони 9-го покоління</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>Предмети покемонів</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>Тренер покемонів</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Білий ведмідь</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Поліція.</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>Пом Поко</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>Поньо.</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>Поп-команда "Епік</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>ПОПГО</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>Порко Россо</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Портал</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>Листоноша Пет</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>Могутні рейнджери</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Хижак</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Присутній</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Гордість</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>Примат</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Принцеса Мононоке</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>Професор Лейтон</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Гарбуз.</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>Гарбуз (Літ)</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>Розділові знаки</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>Землетрус.</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Кролик.</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Залізниця</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>Світ дощу</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Рататуй</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re:Творці</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>Царство Божевільного Бога</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>Червона Шапочка</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>Редстоун</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>Регіональна форма покемонів</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>Регулярне шоу</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Релігія</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>Рептилія</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>Рятувальні рейнджери</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>Обитель зла</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>Небеса ритму</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Стрічка</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Рік і Морті</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>Ризик дощу</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>Суперник Ефіру</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Річка</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>Рівердейл</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>Робін Гуд</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>Робокоп</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Робот.</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Роккі.</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>Кінопоказ "Роккі Хоррор</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Гризун</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>Королівський головний убір</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Руна</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>Сакбой: Велика пригода</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>Сумне створіння.</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>Сумна людина</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>Сафарі (Інше)</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>Сага про Таню Злу</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>Сейлор Мун</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>Самурайський шолом</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Задовільно</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Пила.</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Шарф.</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>Скубі-Ду!</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>Порушення утримання SCP</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Кричи!</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>Скраббленавти</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>Море злодіїв</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>Моряк</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>Серафим кінця</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>Серійні експерименти Lain</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>Вулиця Сезам</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>Сім смертних гріхів</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Тінь Колоса</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>Тіні Мордору</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Вівці.</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Шeрлoк Холмc.</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>Шимонета</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>Блискучий покемон</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Доставка</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>Лопата Лицар</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Шрек.</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>Шулкер.</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>Сайлент Хілл</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>Сімпсони</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Скелет</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>Скелет (ванільний)</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>Скептична істота</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>Скептична людина</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>Дівчата з черепами.</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>Скайрім</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>Спляча красуня</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>Спляча істота</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>Спляча людина</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>Нарізаний</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Слиз.</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>Слиз (Ваніль)</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>Слизьке ранчо</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>Слай Купер</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>Вбити богів</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Куріння</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>Смурфики</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>Снігова битва</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>Снігова скульптура</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>Білосніжка та семеро гномів</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>Пісні війни</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>Їжачок Сонік</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>"Південний парк</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>Космічні подорожі</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>Нерестовик</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Павук.</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>Павук (Ваніль)</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Людина-павук</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>Взвод!</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Губка Боб Квадратні Штани</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Особняк Страшилки зі стрибками</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>Спора</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Спорт</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>Спреди</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>Весна до життя</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>Шпигун x Сім'я</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>Шпигун.</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>Гра в кальмарів</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>День святого Патріка</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>Зоряний Лис</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>"Стар Трек</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>Зірка проти сил зла</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Зоряні війни</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>Шолом "Зоряні війни</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>Шолом десантника "Зоряні війни</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>Старбакс.</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>Долина зоряної роси</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>Стартовий покемон</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Канцелярське приладдя</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>Стимпанк</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>Штейнс; Ворота</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Стіве.</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>Стівен Юніверс</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Камінь</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>Зберігання (інше)</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Вуличний боєць</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Страйдер.</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Літо</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Сонцезахисні окуляри</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Супер Маріо</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Надприродне</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>Здивоване створіння</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>Здивована людина</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Суші</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Болото</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Заплутався.</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>Брязкальце</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>Телепузики</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>Terraria (Лихо)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Тетріс.</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>День Подяки</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>Того разу я перевтілився в слимака</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>Пригоди Тінтіна</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>Дивовижний цифровий цирк</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>Дивовижний світ гумки</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>Зв'язування Ісаака</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>Хлопці</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>Кіт повертається</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>Мідний вік</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>Новий стиль імператора</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>Зірки англійського ансамблю</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>Фінал</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>Флеш</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>Муха</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>Сад пробуджується</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>Добрий динозавр</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>Великий мишачий детектив</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>Похмурі пригоди Біллі та Менді</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>Горбань Нотр-Дам</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>Залізний гігант</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>Останній охоронець</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>Останні з нас</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>Легенда про Зельду</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>Лоракс</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>Небуття</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>Совиний дім</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>Принцеса і жаба</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>Дорога до Ельдорадо</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>Техаська різанина бензопилою</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>Три кабальєро</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>Шоу Вуді Вудпекера</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>Томас і друзі</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Торе.</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>"Ночі у Рейчел</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Токійський упир</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Том і Джеррі</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Розкрадачка гробниць</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>Завтрашні піонери</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>Проміжок між зубами</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Торадора.</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>Острів тотальної драми</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>Проект Touhou</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Іграшка</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Історія іграшок</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Трафік</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Світлофор</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Дорожній знак</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>Стежки та казки</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Трансформатори</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Трансформіце</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>Прозора голова</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Смітник</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Скарб</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>Планета скарбів</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>Оновлення щодо складних судових процесів</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>Трон</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Черепаха.</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Сутінковий ліс</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Перекручена країна чудес</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>Ультракілл</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>Umineko - Коли вони плачуть</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>Універсальний символ</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Вгору.</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>Міська дика природа</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>V для Вендета</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>Валентинки</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Валорант.</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>Ваніль (видалити)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>Ванільний блок</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>Ванільна їжа</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>Ванільний шолом</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>Ванільний виріб</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>Ванільний натовп</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>Мисливці за сховищами</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Овочевий</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Транспортний засіб</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Вікінги</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Селянин.</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>Селянин (Пустеля)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>Сільський житель (Джунглі)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>Селянин (Рівнина)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>Сільський житель (Савана)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Селянин (Снігова тундра)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>Селянин (Болото)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>Сільський житель (тайга)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>Віртуальний ютубер</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Вокалоїд</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>Вольтрон.</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>Вакфу.</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>Ходячі мерці</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>Волл-І.</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>Уоллес і Громіт</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>Війна світів</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Рамки війни</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>Коти-воїни</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>Ми носимо ведмедів</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>Ми, Щасливі Нечисленні.</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Погода</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>Ласкаво просимо додому</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>Хто це?</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>Вогняні крила</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Вінні Пух</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Зима</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Відьмак</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>Дивовижний світ чудес</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Дерево</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Шерсть</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>Захисна каска</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Вайбеле!</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>Вінкрафт</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>Люди Ікс</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Хроніки Ксенобліда</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Жовтий підводний човен</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>Йокай.</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Юка Лейлі</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Молодий</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Ю-Гі-О.</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>Юме Ніккі</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>Нульове крило</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>Знак зодіаку</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Зомбі.</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Зомбі (ванільний)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
+    <t>Зоотопія</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>Тег гіпікселів (мутацій)</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>Hypixel (Домашні тварини)</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>Гіпіксель (мішки)</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>Hypixel (скіни)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>Hypixel (Талісмани)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>Гіпіксель (трофейна риба)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Країна блискучих)</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>Льодовиковий період</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>Льодолаз</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Морозиво</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>Іконки (графічний інтерфейс)</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>Іконки (Ironblock)</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>Іконки (Інше)</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>Іконки (білий фон)</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>Ідентичність V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>Іллагер</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>Іназума Одинадцять</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>Неймовірне</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Індіана Джонс</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>Парк Індіго</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Травми</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>Блок внутрішнього шару</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>Шифрування</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>Комаха</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>Виворіт навиворіт</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>Іну Яша</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>Загарбник Зім</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>Непереможний</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>Залізна Людина</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>Це</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>Як і Дакстер</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Японія</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Баночка.</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>Ювелірні вироби</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>Дивна пригода ДжоДжо</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>Химерна пригода ДжоДжо (стенд)</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>Подорож</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>Дзюдзюцу Кайсен</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>Король Стрибун.</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>Парк Юрського періоду</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>Ліга Справедливості</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>Какегуруї</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>Карате-малюк.</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>Катамарі Дамасі</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>Малий Ікар.</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>Служба доставки Кікі</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>Кім Потенціал</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>Кімецу но Яіба</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>Серця Царства</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>Кірбі.</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Кухня</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>Кунг-фу Панда</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>Куроко но Басуке</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>Абажур</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>Пейзаж</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>Ліхтар.</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>Лапута: замок у небі</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>Легендарні покемони</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>Лего.</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>Смертельна ліга</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>Бібліотека Руїни</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>Життя - дивна штука</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>Компанія Limbus</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>Король Лев</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>Маленька Велика Планета</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>Русалонька</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>Маленькі кошмари</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>Маленька крамничка жахів</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>Маленька академія відьом</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>Ламо!</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Логотип</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>Божевільні мелодії</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>Володар перснів</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>Живи з любов'ю!</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>Закохане створіння</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>Закохана людина</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>Щасливчик Люк.</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>Машинна частина</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>Божевільний батько</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>Божевільний Макс</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>Божевільний бій</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Макіяж</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Чоловік</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>Мао Мао Герої чистого серця</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Дивовижно.</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>Марія і квітка відьми</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>Талісман</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Маска</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>Маска (повна)</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>Маска (функціональна)</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>Маска (здоров'я)</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Маска (моб в Minecraft)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>Володарі Всесвіту</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>Математичний символ</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>"Мак Дональдс".</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>Їжа</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>М'ясо</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>Середньовічний</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>Середньовічна таверна</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Середньовічний бойовий шолом</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>Актори Mekakucity</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Мем</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>Мем (Дождь)</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>Мем (Пепе)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Метал</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Метро</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>Метроїд.</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Мексика</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Міккі Маус</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>Військова техніка</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>Першоквітневі дурниці в Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>Підземелля Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>Minecraft Земля</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>Легенди Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>Фільм про Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>Шахтар.</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>Морський тральщик</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Дивовижно: Казки про сонечко та кота-нуар</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>Мірай Ніккі (Щоденник майбутнього)</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>Покоївка-дракон пані Кобаяші</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>Ресурсний пакет Mizuno</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Моана.</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Сучасний бойовий шолом</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Гроші</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>Грошова крадіжка</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Монітор</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>Мавпячий острів</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>Монокль.</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>Монстр Хай</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>Мисливець на монстрів</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>"Монстр Інк</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>Мумі-троль.</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>Гори хаосу</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>Полоскання рота</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>Містере Бін.</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>Мулан</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>Маппетс</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>Безпілотники-вбивці</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Гриб</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>Гриб (Biome)</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>Гриб (головний убір)</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Музика</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>Вуса.</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>Мій друг олень Нокотан</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>Мій герой Академія</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>Моя маленька поні</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>Мій сусід Тоторо</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>Мої співочі монстри</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>Наруто!</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>Наусікаа з Долини Вітру</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>Нічийний (натхненний)</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>Нігер (ваніль)</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>Нейтральна істота</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>Нейтральна особа</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>Новорічна ніч</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>NieR: Автомати</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>Ніч у лісі</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>Кошмар перед Різдвом</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>Черепашки-ніндзя</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>Немає гри - немає життя</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>Домашня вечірка Ноеля</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>Скандинавська міфологія</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>NPC (освітнє видання)</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>Ядерні опади</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>Ядерний трон</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Номер</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Горіх</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Океан</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>Октодай.</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>Дивний світ</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>ВИМКНЕНО</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>Офіцерський кашкет.</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>Оггі та таргани</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>Окегом</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Старий</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>Оморі.</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>Один Шматок</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>Онгезелліг.</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>Оніі-тян ва Ошімай</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>Об'єкти з відкритим кодом</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>Орб.</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Орк!</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>Руда.</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>Органи та частини тіла</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>Інші головні убори</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>Інше освітлення</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>Інша містична істота</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>Блок зовнішнього шару</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>Повелитель.</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>Пакман.</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>Тихоокеанський регіон</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>Пустушка</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>Розмальоване обличчя</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>Блідий сад (натхненний)</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>Ведмедик Панда</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>Сковорідки Лабіринт</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>Документи, будь ласка.</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Вечірка</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>Випічка та солодощі</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>Щенячий патруль</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>День зарплати</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>Арахіс (Snoopy)</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Пінгвін</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>Свинка Пеппа</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>Періодична таблиця елементів</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Персона</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>Обладнання для домашніх тварин</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Пітер Пен</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Фантом</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>Фінес і Ферб</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Свиня</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>Піглін.</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>Свинопас.</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>Пінгу</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>Рожева Пантера</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>Мізинчик і мозок</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Піноккіо</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>Пірати Карибського моря</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>Піцерія "Вежа піци</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Планета</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>Рослини проти зомбі</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>Покахонтас</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>Покебол</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>Покемони.</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>Покемони покоління 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>Покоління покемонів 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>Покемони 3 покоління</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>Покоління покемонів 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>Покоління покемонів 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>Покемони 6-го покоління</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>Покемони 7-го покоління</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>Покемони 8-го покоління</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>Покемони 9-го покоління</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>Предмети покемонів</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>Тренер покемонів</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>Білий ведмідь</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>Поліція.</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>Пом Поко</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>Поньо.</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>Поп-команда "Епік</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>ПОПГО</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>Порко Россо</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Портал</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>Листоноша Пет</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>Могутні рейнджери</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>Хижак</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Присутній</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Гордість</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>Примат</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>Принцеса Мононоке</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>Професор Лейтон</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Гарбуз.</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>Гарбуз (Літ)</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>Розділові знаки</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>Землетрус.</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Кролик.</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>Залізниця</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>Світ дощу</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Рататуй</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re:Творці</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>Царство Божевільного Бога</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>Червона Шапочка</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>Редстоун</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>Регіональна форма покемонів</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>Регулярне шоу</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Релігія</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>Рептилія</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>Рятувальні рейнджери</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>Обитель зла</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>Небеса ритму</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>Стрічка</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>Рік і Морті</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>Ризик дощу</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>Суперник Ефіру</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Річка</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>Рівердейл</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>Робін Гуд</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>Робокоп</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Робот.</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Роккі.</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>Кінопоказ "Роккі Хоррор</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>Гризун</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>Королівський головний убір</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>Руна</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>Сакбой: Велика пригода</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>Сумне створіння.</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>Сумна людина</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>Сафарі (Інше)</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>Сага про Таню Злу</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>Сейлор Мун</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>Самурайський шолом</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>Задовільно</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>Пила.</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>Шарф.</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>Скубі-Ду!</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>Порушення утримання SCP</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Кричи!</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>Скраббленавти</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>Море злодіїв</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>Моряк</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>Серафим кінця</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>Серійні експерименти Lain</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>Вулиця Сезам</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>Сім смертних гріхів</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>Тінь Колоса</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>Тіні Мордору</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Вівці.</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Шeрлoк Холмc.</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>Шимонета</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>Блискучий покемон</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Доставка</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>Лопата Лицар</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>Шрек.</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>Шулкер.</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>Сайлент Хілл</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>Сімпсони</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>Скелет</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>Скелет (ванільний)</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>Скептична істота</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>Скептична людина</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>Дівчата з черепами.</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>Скайрім</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>Спляча красуня</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>Спляча істота</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>Спляча людина</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>Нарізаний</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>Слиз.</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>Слиз (Ваніль)</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>Слизьке ранчо</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>Слай Купер</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>Вбити богів</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>Куріння</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>Смурфики</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>Снігова битва</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>Снігова скульптура</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>Білосніжка та семеро гномів</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>Пісні війни</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>Їжачок Сонік</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>"Південний парк</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>Космічні подорожі</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>Нерестовик</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Павук.</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>Павук (Ваніль)</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Людина-павук</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>Взвод!</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Губка Боб Квадратні Штани</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Особняк Страшилки зі стрибками</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>Спора</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Спорт</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>Спреди</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>Весна до життя</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>Шпигун x Сім'я</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>Шпигун.</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>Гра в кальмарів</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>День святого Патріка</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>Зоряний Лис</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>"Стар Трек</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>Зірка проти сил зла</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Зоряні війни</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>Шолом "Зоряні війни</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>Шолом десантника "Зоряні війни</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>Старбакс.</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>Долина зоряної роси</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>Стартовий покемон</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>Канцелярське приладдя</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>Стимпанк</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>Штейнс; Ворота</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Стіве.</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>Стівен Юніверс</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Камінь</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>Зберігання (інше)</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>Вуличний боєць</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>Страйдер.</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Літо</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>Сонцезахисні окуляри</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>Супер Маріо</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>Надприродне</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>Здивоване створіння</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>Здивована людина</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Суші</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>Болото</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>Заплутався.</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>Брязкальце</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>Телепузики</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>Terraria (Лихо)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>Тетріс.</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>День Подяки</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>Того разу я перевтілився в слимака</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>Пригоди Тінтіна</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>Дивовижний цифровий цирк</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>Дивовижний світ гумки</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>Зв'язування Ісаака</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>Хлопці</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>Кіт повертається</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>Мідний вік</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>Новий стиль імператора</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>Зірки англійського ансамблю</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>Фінал</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>Флеш</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>Муха</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>Сад пробуджується</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>Добрий динозавр</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>Великий мишачий детектив</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>Похмурі пригоди Біллі та Менді</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>Горбань Нотр-Дам</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>Залізний гігант</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>Останній охоронець</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>Останні з нас</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>Легенда про Зельду</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>Лоракс</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>Небуття</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>Совиний дім</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>Принцеса і жаба</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>Дорога до Ельдорадо</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>Техаська різанина бензопилою</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>Три кабальєро</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>Шоу Вуді Вудпекера</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>Томас і друзі</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Торе.</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>"Ночі у Рейчел</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>Токійський упир</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Том і Джеррі</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Розкрадачка гробниць</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>Завтрашні піонери</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>Проміжок між зубами</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Торадора.</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>Острів тотальної драми</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>Проект Touhou</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>Іграшка</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Історія іграшок</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Трафік</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Світлофор</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Дорожній знак</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>Стежки та казки</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Трансформатори</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Трансформіце</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>Прозора голова</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>Смітник</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>Скарб</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>Планета скарбів</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>Оновлення щодо складних судових процесів</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>Трон</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Черепаха.</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>Сутінковий ліс</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>Перекручена країна чудес</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>Ультракілл</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>Umineko - Коли вони плачуть</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>Універсальний символ</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Вгору.</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>Міська дика природа</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>V для Вендета</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>Валентинки</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Валорант.</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>Ваніль (видалити)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>Ванільний блок</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>Ванільна їжа</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>Ванільний шолом</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>Ванільний виріб</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>Ванільний натовп</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>Мисливці за сховищами</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Овочевий</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Транспортний засіб</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>Вікінги</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>Селянин.</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>Селянин (Пустеля)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>Сільський житель (Джунглі)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>Селянин (Рівнина)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>Сільський житель (Савана)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Селянин (Снігова тундра)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>Селянин (Болото)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>Сільський житель (тайга)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>Віртуальний ютубер</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Вокалоїд</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Вольтрон.</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>Вакфу.</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>Ходячі мерці</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>Волл-І.</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>Уоллес і Громіт</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>Війна світів</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Рамки війни</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>Коти-воїни</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>Ми носимо ведмедів</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>Ми, Щасливі Нечисленні.</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Погода</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>Ласкаво просимо додому</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>Хто це?</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>Вогняні крила</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Вінні Пух</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Зима</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>Відьмак</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>Дивовижний світ чудес</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Дерево</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Шерсть</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>Захисна каска</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Вайбеле!</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>Вінкрафт</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>Люди Ікс</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Хроніки Ксенобліда</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>Жовтий підводний човен</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>Йокай.</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Юка Лейлі</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Молодий</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>Ю-Гі-О.</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>Юме Ніккі</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>Нульове крило</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>Знак зодіаку</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Зомбі.</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>Зомбі (ванільний)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
-  </si>
-  <si>
-    <t>Зоотопія</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -6993,7 +6999,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1176"/>
+  <dimension ref="A1:B1177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -16411,11 +16417,19 @@
         <v>2209</v>
       </c>
       <c r="B1176" t="s">
-        <v>2209</v>
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>2211</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1176"/>
+  <autoFilter ref="A1:B1177"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
